--- a/assets/AdditionalParts.xlsx
+++ b/assets/AdditionalParts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t xml:space="preserve">das musicding</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nl.rs-online.com/web/</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
@@ -170,11 +173,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -197,14 +201,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -253,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,11 +270,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,21 +291,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.4285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.3979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,38 +327,41 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,30 +369,30 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="H5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>470</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,228 +400,199 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H6" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H8" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <v>820</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H11" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>24</v>
+      <c r="H12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -631,21 +602,21 @@
         <v>500</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>34</v>
+      <c r="H20" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,22 +624,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,19 +647,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,19 +678,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,51 +698,51 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="H26" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="H27" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I27" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/assets/AdditionalParts.xlsx
+++ b/assets/AdditionalParts.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">das musicding</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t xml:space="preserve">Aantal</t>
   </si>
@@ -37,7 +34,10 @@
     <t xml:space="preserve">Location</t>
   </si>
   <si>
-    <t xml:space="preserve">https://nl.rs-online.com/web/</t>
+    <t xml:space="preserve">tonefactory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">musikding</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
@@ -49,42 +49,48 @@
     <t xml:space="preserve">Input networks</t>
   </si>
   <si>
+    <t xml:space="preserve">Metal Film 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5W 750V Metal Oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">715P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 st Coupling caps</t>
+  </si>
+  <si>
     <t xml:space="preserve">2W Metal Film</t>
   </si>
   <si>
-    <t xml:space="preserve">500pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Mica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5W 750V Metal Oxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">715P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 st Coupling caps</t>
+    <t xml:space="preserve">Cathode follower</t>
   </si>
   <si>
     <t xml:space="preserve">5.6k</t>
   </si>
   <si>
-    <t xml:space="preserve">Cathode follower</t>
+    <t xml:space="preserve">1N4007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diode</t>
   </si>
   <si>
     <t xml:space="preserve">220k</t>
   </si>
   <si>
-    <t xml:space="preserve">1N4007</t>
-  </si>
-  <si>
     <t xml:space="preserve">16uF</t>
   </si>
   <si>
@@ -94,48 +100,48 @@
     <t xml:space="preserve">filter cap</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase splitter</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.2k</t>
   </si>
   <si>
     <t xml:space="preserve">82k</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase splitter</t>
-  </si>
-  <si>
     <t xml:space="preserve">33k</t>
   </si>
   <si>
+    <t xml:space="preserve">25k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pot</t>
+  </si>
+  <si>
     <t xml:space="preserve">100k</t>
   </si>
   <si>
-    <t xml:space="preserve">25k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pot</t>
+    <t xml:space="preserve">humdinger</t>
   </si>
   <si>
     <t xml:space="preserve">1M</t>
   </si>
   <si>
-    <t xml:space="preserve">potje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">humdinger</t>
+    <t xml:space="preserve">bias supply</t>
   </si>
   <si>
     <t xml:space="preserve">270k</t>
   </si>
   <si>
-    <t xml:space="preserve">bias supply</t>
-  </si>
-  <si>
     <t xml:space="preserve">27k</t>
   </si>
   <si>
+    <t xml:space="preserve">Waarom??</t>
+  </si>
+  <si>
     <t xml:space="preserve">56k</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
     <t xml:space="preserve">heat shrink</t>
   </si>
   <si>
+    <t xml:space="preserve">allerlei</t>
+  </si>
+  <si>
     <t xml:space="preserve">100nF</t>
   </si>
   <si>
@@ -163,15 +172,34 @@
     <t xml:space="preserve">step drill??</t>
   </si>
   <si>
-    <t xml:space="preserve">desoldering braid</t>
+    <t xml:space="preserve">desoldering braid 2.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turrets (2 of 3 mm?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuts (pots)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automatic center punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shielded wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totaal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$€]\ #,##0.00;[RED][$€]\ #,##0.00\-"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -211,12 +239,30 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF3333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,12 +299,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,7 +320,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -283,6 +361,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -291,55 +429,66 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7142857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.36224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.63265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.6020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.36224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.63265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="I2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -354,14 +503,27 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="F3" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <f aca="false">F3*A3</f>
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="n">
+        <f aca="false">L3*I3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,25 +536,73 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="E4" s="2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <f aca="false">E4*A4</f>
+        <v>1.9</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <f aca="false">M4*I4</f>
+        <v>0.15</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H5" s="1" t="n">
-        <v>2</v>
+      <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <f aca="false">F5*A5</f>
+        <v>2.8</v>
       </c>
       <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>470</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <f aca="false">M5*I5</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,45 +610,111 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <f aca="false">F6*A6</f>
+        <v>0.28</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <f aca="false">M6*I6</f>
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <f aca="false">F7*A7</f>
+        <v>0.04</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <f aca="false">M7*I7</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="2" t="n">
+        <f aca="false">E8*A8</f>
+        <v>2.55</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <f aca="false">M8*I8</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,63 +722,149 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <f aca="false">F9*A9</f>
+        <v>1.1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <f aca="false">M9*I9</f>
+        <v>0.28</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">F10*A10</f>
+        <v>4.2</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>820</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
+      <c r="L10" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="2" t="n">
+        <f aca="false">L10*I10</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">F11*A11</f>
+        <v>0.28</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <f aca="false">M11*I11</f>
+        <v>0.14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>25</v>
+      <c r="A12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <f aca="false">F12*A12</f>
+        <v>0.14</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <f aca="false">M12*I12</f>
+        <v>0.14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,68 +872,149 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">F13*A13</f>
+        <v>3.4</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <f aca="false">M13*I13</f>
+        <v>0.56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="2" t="n">
+        <f aca="false">E14*A14</f>
+        <v>4.1</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <f aca="false">M14*I14</f>
+        <v>0.56</v>
+      </c>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="2" t="n">
+        <f aca="false">E15*A15</f>
+        <v>3.4</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <f aca="false">M15*I15</f>
+        <v>0.28</v>
+      </c>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <f aca="false">F16*A16</f>
+        <v>0.14</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <f aca="false">M16*I16</f>
+        <v>0.28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,170 +1022,295 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <f aca="false">F17*A17</f>
+        <v>0.14</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <f aca="false">M17*I17</f>
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <f aca="false">F18*A18</f>
+        <v>0.04</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <f aca="false">M18*I18</f>
+        <v>0.28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>500</v>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <f aca="false">F19*A19</f>
+        <v>2.1</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M19" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <f aca="false">M19*I19</f>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>35</v>
+      <c r="A20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <f aca="false">F20*A20</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <f aca="false">M20*I20</f>
+        <v>2.75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <f aca="false">F21*A21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="2" t="n">
+        <f aca="false">F22*A22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <f aca="false">F23*A23</f>
+        <v>1.8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <f aca="false">E24*A24</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="n">
+        <f aca="false">F25*A25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>15</v>
+      <c r="A26" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <f aca="false">F26*A26</f>
+        <v>3.4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <f aca="false">F27*A27</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <f aca="false">F28*A28</f>
+        <v>1.55</v>
+      </c>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1" t="s">
-        <v>46</v>
+      <c r="G29" s="12" t="n">
+        <f aca="false">SUM(G3:G28)</f>
+        <v>45.46</v>
+      </c>
+      <c r="N29" s="12" t="n">
+        <f aca="false">SUM(N3:N28)</f>
+        <v>9.64</v>
+      </c>
+      <c r="O29" s="12" t="n">
+        <f aca="false">N29+G29</f>
+        <v>55.1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1" t="s">
-        <v>47</v>
+      <c r="G30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/assets/AdditionalParts.xlsx
+++ b/assets/AdditionalParts.xlsx
@@ -121,6 +121,9 @@
     <t xml:space="preserve">pot</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">100k</t>
   </si>
   <si>
@@ -139,9 +142,6 @@
     <t xml:space="preserve">27k</t>
   </si>
   <si>
-    <t xml:space="preserve">Waarom??</t>
-  </si>
-  <si>
     <t xml:space="preserve">56k</t>
   </si>
   <si>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">desoldering braid 2.5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">Turrets (2 of 3 mm?)</t>
+    <t xml:space="preserve">Turrets 3mm</t>
   </si>
   <si>
     <t xml:space="preserve">nuts (pots)</t>
@@ -299,7 +299,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,14 +337,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,24 +424,24 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26:G26"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.36224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.63265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.36224489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.63265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,6 +869,9 @@
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="2" t="n">
         <v>3.4</v>
       </c>
@@ -888,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>17</v>
@@ -913,7 +908,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>4.1</v>
@@ -927,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>17</v>
@@ -953,7 +948,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>3.4</v>
@@ -967,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>17</v>
@@ -1022,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
@@ -1038,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>17</v>
@@ -1061,9 +1056,6 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>0.04</v>
@@ -1237,23 +1229,22 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11" t="n">
+      <c r="F26" s="2" t="n">
         <v>3.4</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="2" t="n">
         <f aca="false">F26*A26</f>
         <v>3.4</v>
       </c>
@@ -1287,26 +1278,25 @@
         <f aca="false">F28*A28</f>
         <v>1.55</v>
       </c>
-      <c r="K28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="12" t="n">
+      <c r="G29" s="10" t="n">
         <f aca="false">SUM(G3:G28)</f>
         <v>45.46</v>
       </c>
-      <c r="N29" s="12" t="n">
+      <c r="N29" s="10" t="n">
         <f aca="false">SUM(N3:N28)</f>
         <v>9.64</v>
       </c>
-      <c r="O29" s="12" t="n">
+      <c r="O29" s="10" t="n">
         <f aca="false">N29+G29</f>
         <v>55.1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
+      <c r="G30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H38" s="1" t="s">

--- a/assets/AdditionalParts.xlsx
+++ b/assets/AdditionalParts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t xml:space="preserve">Aantal</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Input networks</t>
   </si>
   <si>
-    <t xml:space="preserve">Metal Film 1%</t>
+    <t xml:space="preserve">2W Metal Film</t>
   </si>
   <si>
     <t xml:space="preserve">500pF</t>
@@ -64,49 +64,49 @@
     <t xml:space="preserve">5W 750V Metal Oxide</t>
   </si>
   <si>
+    <t xml:space="preserve">22nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">715P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 st Coupling caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cathode follower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1N4007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter cap</t>
+  </si>
+  <si>
     <t xml:space="preserve">10nF</t>
   </si>
   <si>
-    <t xml:space="preserve">715P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 st Coupling caps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2W Metal Film</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cathode follower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1N4007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2nF</t>
-  </si>
-  <si>
     <t xml:space="preserve">phase splitter</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2k</t>
+    <t xml:space="preserve">100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2k/10k</t>
   </si>
   <si>
     <t xml:space="preserve">82k</t>
@@ -115,6 +115,9 @@
     <t xml:space="preserve">33k</t>
   </si>
   <si>
+    <t xml:space="preserve">100k</t>
+  </si>
+  <si>
     <t xml:space="preserve">25k</t>
   </si>
   <si>
@@ -124,21 +127,18 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">100k</t>
+    <t xml:space="preserve">1M</t>
   </si>
   <si>
     <t xml:space="preserve">humdinger</t>
   </si>
   <si>
-    <t xml:space="preserve">1M</t>
+    <t xml:space="preserve">270k</t>
   </si>
   <si>
     <t xml:space="preserve">bias supply</t>
   </si>
   <si>
-    <t xml:space="preserve">270k</t>
-  </si>
-  <si>
     <t xml:space="preserve">27k</t>
   </si>
   <si>
@@ -154,40 +154,40 @@
     <t xml:space="preserve">extra</t>
   </si>
   <si>
-    <t xml:space="preserve">22nF</t>
-  </si>
-  <si>
     <t xml:space="preserve">heat shrink</t>
   </si>
   <si>
     <t xml:space="preserve">allerlei</t>
   </si>
   <si>
-    <t xml:space="preserve">100nF</t>
-  </si>
-  <si>
     <t xml:space="preserve">helping hand</t>
   </si>
   <si>
-    <t xml:space="preserve">step drill??</t>
-  </si>
-  <si>
     <t xml:space="preserve">desoldering braid 2.5mm</t>
   </si>
   <si>
     <t xml:space="preserve">Turrets 3mm</t>
   </si>
   <si>
-    <t xml:space="preserve">nuts (pots)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presence</t>
+    <t xml:space="preserve">M9 x 0.75 nuts (pots)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presence log</t>
   </si>
   <si>
     <t xml:space="preserve">automatic center punch</t>
   </si>
   <si>
-    <t xml:space="preserve">shielded wire</t>
+    <t xml:space="preserve">50W resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sturdy switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100gr solder</t>
   </si>
   <si>
     <t xml:space="preserve">Totaal</t>
@@ -239,7 +239,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +248,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99FF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -262,6 +262,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor rgb="FF99FF66"/>
       </patternFill>
     </fill>
   </fills>
@@ -299,7 +305,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -320,11 +326,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -336,22 +346,26 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -389,7 +403,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FF99FF99"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -397,7 +411,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF99FF66"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF3333"/>
@@ -421,27 +435,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="10.8010204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="7.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="10.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,25 +474,25 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -498,25 +512,29 @@
       <c r="F3" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="6" t="n">
         <f aca="false">F3*A3</f>
         <v>0.6</v>
       </c>
-      <c r="I3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="n">
-        <f aca="false">L3*I3</f>
-        <v>0</v>
-      </c>
+      <c r="H3" s="7"/>
+      <c r="J3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <f aca="false">N3*J3</f>
+        <v>1.4</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -531,30 +549,32 @@
       <c r="E4" s="2" t="n">
         <v>0.95</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="8" t="n">
         <v>0.65</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="6" t="n">
         <f aca="false">E4*A4</f>
         <v>1.9</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="H4" s="7"/>
+      <c r="J4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="N4" s="2" t="n">
-        <f aca="false">M4*I4</f>
+      <c r="O4" s="6" t="n">
+        <f aca="false">N4*J4</f>
         <v>0.15</v>
       </c>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -570,32 +590,34 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F5" s="9" t="n">
         <v>1.4</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="6" t="n">
         <f aca="false">F5*A5</f>
         <v>2.8</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="H5" s="7"/>
       <c r="J5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>470</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="N5" s="2" t="n">
-        <f aca="false">M5*I5</f>
+      <c r="O5" s="6" t="n">
+        <f aca="false">N5*J5</f>
         <v>0.3</v>
       </c>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -605,122 +627,131 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="6" t="n">
         <f aca="false">F6*A6</f>
         <v>0.28</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
+      <c r="H6" s="7"/>
+      <c r="J6" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="n">
-        <v>0.14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2" t="n">
-        <f aca="false">M6*I6</f>
+        <v>0.14</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <f aca="false">N6*J6</f>
         <v>0.28</v>
       </c>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <f aca="false">E7*A7</f>
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="J7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <f aca="false">F7*A7</f>
-        <v>0.04</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="N7" s="2" t="n">
-        <f aca="false">M7*I7</f>
+      <c r="O7" s="6" t="n">
+        <f aca="false">N7*J7</f>
         <v>0.15</v>
       </c>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>2.55</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="6" t="n">
         <f aca="false">E8*A8</f>
         <v>2.55</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="H8" s="7"/>
+      <c r="J8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="N8" s="2" t="n">
-        <f aca="false">M8*I8</f>
+      <c r="O8" s="6" t="n">
+        <f aca="false">N8*J8</f>
         <v>0.15</v>
       </c>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>1.05</v>
@@ -728,35 +759,36 @@
       <c r="F9" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="6" t="n">
         <f aca="false">F9*A9</f>
         <v>1.1</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="H9" s="7"/>
       <c r="J9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>820</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="L9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2" t="n">
-        <f aca="false">M9*I9</f>
+        <v>0.14</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <f aca="false">N9*J9</f>
         <v>0.28</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -765,217 +797,226 @@
         <v>1.4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G10" s="2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <f aca="false">F10*A10</f>
-        <v>4.2</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="J10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="M10" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="2" t="n">
-        <f aca="false">L10*I10</f>
-        <v>0.2</v>
-      </c>
+      <c r="N10" s="11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <f aca="false">N10*J10</f>
+        <v>0.15</v>
+      </c>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <f aca="false">F11*A11</f>
-        <v>0.28</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6" t="n">
+        <f aca="false">E11*A11</f>
+        <v>1.35</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="J11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="L11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2" t="n">
-        <f aca="false">M11*I11</f>
-        <v>0.14</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <f aca="false">N11*J11</f>
+        <v>0.14</v>
+      </c>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="6" t="n">
         <f aca="false">F12*A12</f>
-        <v>0.14</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
+        <v>0.28</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="J12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="L12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2" t="n">
-        <f aca="false">M12*I12</f>
-        <v>0.14</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <f aca="false">N12*J12</f>
+        <v>0.14</v>
+      </c>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <f aca="false">F13*A13</f>
+        <v>0.14</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="J13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <f aca="false">F13*A13</f>
-        <v>3.4</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="L13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2" t="n">
-        <f aca="false">M13*I13</f>
+        <v>0.14</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <f aca="false">N13*J13</f>
         <v>0.56</v>
       </c>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>100</v>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <f aca="false">F14*A14</f>
+        <v>3.4</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="J14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="2" t="n">
-        <f aca="false">E14*A14</f>
-        <v>4.1</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="L14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2" t="n">
-        <f aca="false">M14*I14</f>
+        <v>0.14</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <f aca="false">N14*J14</f>
         <v>0.56</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
+      <c r="B15" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6" t="n">
+        <f aca="false">E15*A15</f>
+        <v>4.1</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="J15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="2" t="n">
-        <f aca="false">E15*A15</f>
-        <v>3.4</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="L15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2" t="n">
-        <f aca="false">M15*I15</f>
+        <v>0.14</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <f aca="false">N15*J15</f>
         <v>0.28</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -985,321 +1026,423 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <f aca="false">F16*A16</f>
-        <v>0.14</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="6" t="n">
+        <f aca="false">E16*A16</f>
+        <v>3.4</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="J16" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2" t="n">
-        <v>0.14</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2" t="n">
-        <f aca="false">M16*I16</f>
+        <v>0.14</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <f aca="false">N16*J16</f>
         <v>0.28</v>
       </c>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="6" t="n">
         <f aca="false">F17*A17</f>
         <v>0.14</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="H17" s="7"/>
+      <c r="J17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="L17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2" t="n">
-        <f aca="false">M17*I17</f>
-        <v>0.14</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <f aca="false">N17*J17</f>
+        <v>0.14</v>
+      </c>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G18" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G18" s="6" t="n">
         <f aca="false">F18*A18</f>
-        <v>0.04</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" s="1" t="s">
+        <v>0.28</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="J18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="L18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2" t="n">
-        <f aca="false">M18*I18</f>
+        <v>0.14</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <f aca="false">N18*J18</f>
         <v>0.28</v>
       </c>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <f aca="false">F19*A19</f>
-        <v>2.1</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <f aca="false">E19*A19</f>
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="J19" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="M19" s="2" t="n">
         <v>1.35</v>
       </c>
-      <c r="M19" s="7" t="n">
+      <c r="N19" s="8" t="n">
         <v>1.5</v>
       </c>
-      <c r="N19" s="2" t="n">
-        <f aca="false">M19*I19</f>
-        <v>3</v>
-      </c>
+      <c r="O19" s="6" t="n">
+        <f aca="false">M19*J19</f>
+        <v>2.7</v>
+      </c>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <f aca="false">E20*A20</f>
+        <v>3.95</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="J20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <f aca="false">N20*J20</f>
+        <v>2.75</v>
+      </c>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F21" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <f aca="false">F21*A21</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <f aca="false">F20*A20</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="F22" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <f aca="false">F22*A22</f>
+        <v>5.5</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <f aca="false">M20*I20</f>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <f aca="false">F21*A21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="2" t="n">
-        <f aca="false">F22*A22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="G23" s="2" t="n">
-        <f aca="false">F23*A23</f>
+      <c r="G23" s="6" t="n">
+        <f aca="false">F23*A24</f>
         <v>1.8</v>
       </c>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="G24" s="2" t="n">
-        <f aca="false">E24*A24</f>
-        <v>2</v>
-      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="6" t="n">
+        <f aca="false">E24*A25</f>
+        <v>2</v>
+      </c>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="A25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="2" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G25" s="6" t="n">
-        <f aca="false">F25*A25</f>
-        <v>0</v>
-      </c>
+        <f aca="false">F25*A26</f>
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>3.4</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <f aca="false">F26*A26</f>
+      <c r="G26" s="6" t="n">
+        <f aca="false">F26*A27</f>
         <v>3.4</v>
       </c>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>8.5</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <f aca="false">F27*A27</f>
+      <c r="G27" s="6" t="n">
+        <f aca="false">F27*A28</f>
         <v>8.5</v>
       </c>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B28" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <f aca="false">F28*A29</f>
+        <v>5.2</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <f aca="false">F29*A30</f>
+        <v>1.2</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <f aca="false">F28*A28</f>
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="10" t="n">
-        <f aca="false">SUM(G3:G28)</f>
-        <v>45.46</v>
-      </c>
-      <c r="N29" s="10" t="n">
-        <f aca="false">SUM(N3:N28)</f>
-        <v>9.64</v>
-      </c>
-      <c r="O29" s="10" t="n">
-        <f aca="false">N29+G29</f>
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="1" t="s">
+      <c r="F30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <f aca="false">F30*A33</f>
+        <v>3</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="6"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <f aca="false">SUM(G3:G30)</f>
+        <v>64.17</v>
+      </c>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="5"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O35" s="5" t="n">
+        <f aca="false">SUM(O3:O31)</f>
+        <v>10.69</v>
+      </c>
+      <c r="P35" s="5" t="n">
+        <f aca="false">O35+G33</f>
+        <v>74.86</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P36" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="1" t="s">
         <v>56</v>
       </c>
     </row>
